--- a/output/inference_results/test_sheets/batch_005/test_sheet (53).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (53).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,54 +424,48 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>序</t>
+          <t>代号</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>代号</t>
+          <t>项目名称</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>梅毒抗体</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梅毒抗体</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -480,26 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>HIV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HIV</t>
+          <t>艾滋病抗体</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>艾滋病抗体</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -508,26 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>TRUSR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRUSR</t>
+          <t>梅毒血清试验</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>梅毒血清试验</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -536,26 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HCV</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HCV</t>
+          <t>丙肝抗体</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>丙肝抗体</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>阳性</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
